--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -18199,13 +18199,13 @@
         </is>
       </c>
       <c r="C349" t="n">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="D349" t="n">
         <v>408</v>
       </c>
       <c r="E349" t="n">
-        <v>13672438</v>
+        <v>13691790</v>
       </c>
       <c r="F349" t="inlineStr">
         <is>
@@ -21820,13 +21820,13 @@
         </is>
       </c>
       <c r="C420" t="n">
-        <v>45882</v>
+        <v>45883</v>
       </c>
       <c r="D420" t="n">
         <v>7717</v>
       </c>
       <c r="E420" t="n">
-        <v>185496772</v>
+        <v>185506772</v>
       </c>
       <c r="F420" t="inlineStr">
         <is>
@@ -22534,13 +22534,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>163689</v>
+        <v>163695</v>
       </c>
       <c r="D434" t="n">
         <v>25458</v>
       </c>
       <c r="E434" t="n">
-        <v>712331163</v>
+        <v>712356295</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -22585,13 +22585,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>94665</v>
+        <v>94666</v>
       </c>
       <c r="D435" t="n">
         <v>12852</v>
       </c>
       <c r="E435" t="n">
-        <v>653773136</v>
+        <v>653783136</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
@@ -22636,13 +22636,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>50651</v>
+        <v>50652</v>
       </c>
       <c r="D436" t="n">
         <v>6175</v>
       </c>
       <c r="E436" t="n">
-        <v>542777727</v>
+        <v>542787727</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
@@ -22738,13 +22738,13 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>10277</v>
+        <v>10278</v>
       </c>
       <c r="D438" t="n">
         <v>1383</v>
       </c>
       <c r="E438" t="n">
-        <v>484444469</v>
+        <v>484591820</v>
       </c>
       <c r="F438" t="inlineStr">
         <is>
@@ -22840,13 +22840,13 @@
         </is>
       </c>
       <c r="C440" t="n">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D440" t="n">
         <v>98</v>
       </c>
       <c r="E440" t="n">
-        <v>70780232</v>
+        <v>70870045</v>
       </c>
       <c r="F440" t="inlineStr">
         <is>
@@ -23656,13 +23656,13 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>15510</v>
+        <v>15513</v>
       </c>
       <c r="D456" t="n">
         <v>2399</v>
       </c>
       <c r="E456" t="n">
-        <v>41616133</v>
+        <v>41624395</v>
       </c>
       <c r="F456" t="inlineStr">
         <is>
@@ -23758,13 +23758,13 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>24149</v>
+        <v>24151</v>
       </c>
       <c r="D458" t="n">
         <v>4652</v>
       </c>
       <c r="E458" t="n">
-        <v>133162893</v>
+        <v>133167172</v>
       </c>
       <c r="F458" t="inlineStr">
         <is>
@@ -25900,13 +25900,13 @@
         </is>
       </c>
       <c r="C500" t="n">
-        <v>6391</v>
+        <v>6392</v>
       </c>
       <c r="D500" t="n">
         <v>1894</v>
       </c>
       <c r="E500" t="n">
-        <v>21962970</v>
+        <v>21970305</v>
       </c>
       <c r="F500" t="inlineStr">
         <is>
@@ -32989,13 +32989,13 @@
         </is>
       </c>
       <c r="C639" t="n">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="D639" t="n">
         <v>211</v>
       </c>
       <c r="E639" t="n">
-        <v>5835755</v>
+        <v>5986418</v>
       </c>
       <c r="F639" t="inlineStr">
         <is>
@@ -36916,13 +36916,13 @@
         </is>
       </c>
       <c r="C716" t="n">
-        <v>24920</v>
+        <v>24921</v>
       </c>
       <c r="D716" t="n">
         <v>4135</v>
       </c>
       <c r="E716" t="n">
-        <v>87349868</v>
+        <v>87359868</v>
       </c>
       <c r="F716" t="inlineStr">
         <is>
@@ -38395,13 +38395,13 @@
         </is>
       </c>
       <c r="C745" t="n">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="D745" t="n">
         <v>60</v>
       </c>
       <c r="E745" t="n">
-        <v>13884225</v>
+        <v>13935872</v>
       </c>
       <c r="F745" t="inlineStr">
         <is>
@@ -41812,13 +41812,13 @@
         </is>
       </c>
       <c r="C812" t="n">
-        <v>60662</v>
+        <v>60663</v>
       </c>
       <c r="D812" t="n">
         <v>10169</v>
       </c>
       <c r="E812" t="n">
-        <v>245064575</v>
+        <v>245074575</v>
       </c>
       <c r="F812" t="inlineStr">
         <is>
@@ -43954,13 +43954,13 @@
         </is>
       </c>
       <c r="C854" t="n">
-        <v>8284</v>
+        <v>8285</v>
       </c>
       <c r="D854" t="n">
         <v>1569</v>
       </c>
       <c r="E854" t="n">
-        <v>47115269</v>
+        <v>47130262</v>
       </c>
       <c r="F854" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -4480,13 +4480,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>18572</v>
+        <v>18573</v>
       </c>
       <c r="D80" t="n">
         <v>3517</v>
       </c>
       <c r="E80" t="n">
-        <v>73354667</v>
+        <v>73354784</v>
       </c>
       <c r="F80" t="inlineStr">
         <is>
@@ -22024,13 +22024,13 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>1607</v>
+        <v>1608</v>
       </c>
       <c r="D424" t="n">
         <v>280</v>
       </c>
       <c r="E424" t="n">
-        <v>79035566</v>
+        <v>79040243</v>
       </c>
       <c r="F424" t="inlineStr">
         <is>
@@ -22483,13 +22483,13 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>61107</v>
+        <v>61108</v>
       </c>
       <c r="D433" t="n">
         <v>9650</v>
       </c>
       <c r="E433" t="n">
-        <v>221190182</v>
+        <v>221192087</v>
       </c>
       <c r="F433" t="inlineStr">
         <is>
@@ -22534,13 +22534,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>163695</v>
+        <v>163709</v>
       </c>
       <c r="D434" t="n">
         <v>25458</v>
       </c>
       <c r="E434" t="n">
-        <v>712356295</v>
+        <v>712475742</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -22585,13 +22585,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>94666</v>
+        <v>94668</v>
       </c>
       <c r="D435" t="n">
         <v>12852</v>
       </c>
       <c r="E435" t="n">
-        <v>653783136</v>
+        <v>653794636</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
@@ -22636,13 +22636,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>50652</v>
+        <v>50654</v>
       </c>
       <c r="D436" t="n">
         <v>6175</v>
       </c>
       <c r="E436" t="n">
-        <v>542787727</v>
+        <v>543187727</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
@@ -22687,13 +22687,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>30985</v>
+        <v>30986</v>
       </c>
       <c r="D437" t="n">
         <v>3832</v>
       </c>
       <c r="E437" t="n">
-        <v>596945020</v>
+        <v>596953520</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
@@ -22738,13 +22738,13 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>10278</v>
+        <v>10281</v>
       </c>
       <c r="D438" t="n">
         <v>1383</v>
       </c>
       <c r="E438" t="n">
-        <v>484591820</v>
+        <v>484827275</v>
       </c>
       <c r="F438" t="inlineStr">
         <is>
@@ -23146,13 +23146,13 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>53204</v>
+        <v>53206</v>
       </c>
       <c r="D446" t="n">
         <v>8887</v>
       </c>
       <c r="E446" t="n">
-        <v>117955816</v>
+        <v>117969956</v>
       </c>
       <c r="F446" t="inlineStr">
         <is>
@@ -23707,13 +23707,13 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>48929</v>
+        <v>48931</v>
       </c>
       <c r="D457" t="n">
         <v>8597</v>
       </c>
       <c r="E457" t="n">
-        <v>164891731</v>
+        <v>164902109</v>
       </c>
       <c r="F457" t="inlineStr">
         <is>
@@ -23809,13 +23809,13 @@
         </is>
       </c>
       <c r="C459" t="n">
-        <v>7782</v>
+        <v>7783</v>
       </c>
       <c r="D459" t="n">
         <v>1537</v>
       </c>
       <c r="E459" t="n">
-        <v>64648343</v>
+        <v>64664489</v>
       </c>
       <c r="F459" t="inlineStr">
         <is>
@@ -24319,13 +24319,13 @@
         </is>
       </c>
       <c r="C469" t="n">
-        <v>16597</v>
+        <v>16600</v>
       </c>
       <c r="D469" t="n">
         <v>3050</v>
       </c>
       <c r="E469" t="n">
-        <v>90371847</v>
+        <v>90434191</v>
       </c>
       <c r="F469" t="inlineStr">
         <is>
@@ -24472,13 +24472,13 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D472" t="n">
         <v>187</v>
       </c>
       <c r="E472" t="n">
-        <v>55407645</v>
+        <v>55574268</v>
       </c>
       <c r="F472" t="inlineStr">
         <is>
@@ -41047,13 +41047,13 @@
         </is>
       </c>
       <c r="C797" t="n">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="D797" t="n">
         <v>478</v>
       </c>
       <c r="E797" t="n">
-        <v>21044216</v>
+        <v>21069757</v>
       </c>
       <c r="F797" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -5143,13 +5143,13 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1631</v>
+        <v>1632</v>
       </c>
       <c r="D93" t="n">
         <v>292</v>
       </c>
       <c r="E93" t="n">
-        <v>67000149</v>
+        <v>67106149</v>
       </c>
       <c r="F93" t="inlineStr">
         <is>
@@ -12589,13 +12589,13 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>6146</v>
+        <v>6147</v>
       </c>
       <c r="D239" t="n">
         <v>1217</v>
       </c>
       <c r="E239" t="n">
-        <v>35230081</v>
+        <v>35231195</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -13966,13 +13966,13 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>4078</v>
+        <v>4079</v>
       </c>
       <c r="D266" t="n">
         <v>721</v>
       </c>
       <c r="E266" t="n">
-        <v>7606243</v>
+        <v>7611123</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -22534,13 +22534,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>163709</v>
+        <v>163711</v>
       </c>
       <c r="D434" t="n">
         <v>25458</v>
       </c>
       <c r="E434" t="n">
-        <v>712475742</v>
+        <v>712492230</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -22585,13 +22585,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>94668</v>
+        <v>94671</v>
       </c>
       <c r="D435" t="n">
         <v>12852</v>
       </c>
       <c r="E435" t="n">
-        <v>653794636</v>
+        <v>653828374</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
@@ -22636,13 +22636,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>50654</v>
+        <v>50655</v>
       </c>
       <c r="D436" t="n">
         <v>6175</v>
       </c>
       <c r="E436" t="n">
-        <v>543187727</v>
+        <v>543205231</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
@@ -22687,13 +22687,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>30986</v>
+        <v>30987</v>
       </c>
       <c r="D437" t="n">
         <v>3832</v>
       </c>
       <c r="E437" t="n">
-        <v>596953520</v>
+        <v>596964557</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
@@ -23248,13 +23248,13 @@
         </is>
       </c>
       <c r="C448" t="n">
-        <v>30916</v>
+        <v>30917</v>
       </c>
       <c r="D448" t="n">
         <v>6221</v>
       </c>
       <c r="E448" t="n">
-        <v>110350289</v>
+        <v>110353552</v>
       </c>
       <c r="F448" t="inlineStr">
         <is>
@@ -23350,13 +23350,13 @@
         </is>
       </c>
       <c r="C450" t="n">
-        <v>5215</v>
+        <v>5216</v>
       </c>
       <c r="D450" t="n">
         <v>952</v>
       </c>
       <c r="E450" t="n">
-        <v>41184236</v>
+        <v>41201794</v>
       </c>
       <c r="F450" t="inlineStr">
         <is>
@@ -26359,13 +26359,13 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>4564</v>
+        <v>4566</v>
       </c>
       <c r="D509" t="n">
         <v>967</v>
       </c>
       <c r="E509" t="n">
-        <v>20640720</v>
+        <v>20667158</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
@@ -26614,13 +26614,13 @@
         </is>
       </c>
       <c r="C514" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D514" t="n">
         <v>4</v>
       </c>
       <c r="E514" t="n">
-        <v>1026347</v>
+        <v>1153896</v>
       </c>
       <c r="F514" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -4225,13 +4225,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="D75" t="n">
         <v>58</v>
       </c>
       <c r="E75" t="n">
-        <v>9512348</v>
+        <v>9750596</v>
       </c>
       <c r="F75" t="inlineStr">
         <is>
@@ -18148,13 +18148,13 @@
         </is>
       </c>
       <c r="C348" t="n">
-        <v>5218</v>
+        <v>5219</v>
       </c>
       <c r="D348" t="n">
         <v>1053</v>
       </c>
       <c r="E348" t="n">
-        <v>20473121</v>
+        <v>20481621</v>
       </c>
       <c r="F348" t="inlineStr">
         <is>
@@ -22483,13 +22483,13 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>61108</v>
+        <v>61109</v>
       </c>
       <c r="D433" t="n">
         <v>9650</v>
       </c>
       <c r="E433" t="n">
-        <v>221192087</v>
+        <v>221193587</v>
       </c>
       <c r="F433" t="inlineStr">
         <is>
@@ -22534,13 +22534,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>163711</v>
+        <v>163723</v>
       </c>
       <c r="D434" t="n">
         <v>25458</v>
       </c>
       <c r="E434" t="n">
-        <v>712492230</v>
+        <v>712571897</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -22585,13 +22585,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>94671</v>
+        <v>94673</v>
       </c>
       <c r="D435" t="n">
         <v>12852</v>
       </c>
       <c r="E435" t="n">
-        <v>653828374</v>
+        <v>653862797</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
@@ -22636,13 +22636,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>50655</v>
+        <v>50659</v>
       </c>
       <c r="D436" t="n">
         <v>6175</v>
       </c>
       <c r="E436" t="n">
-        <v>543205231</v>
+        <v>543403572</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
@@ -22687,13 +22687,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>30987</v>
+        <v>30990</v>
       </c>
       <c r="D437" t="n">
         <v>3832</v>
       </c>
       <c r="E437" t="n">
-        <v>596964557</v>
+        <v>597230646</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
@@ -22738,13 +22738,13 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>10281</v>
+        <v>10282</v>
       </c>
       <c r="D438" t="n">
         <v>1383</v>
       </c>
       <c r="E438" t="n">
-        <v>484827275</v>
+        <v>484868542</v>
       </c>
       <c r="F438" t="inlineStr">
         <is>
@@ -22789,13 +22789,13 @@
         </is>
       </c>
       <c r="C439" t="n">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="D439" t="n">
         <v>232</v>
       </c>
       <c r="E439" t="n">
-        <v>135199140</v>
+        <v>135298874</v>
       </c>
       <c r="F439" t="inlineStr">
         <is>
@@ -23146,13 +23146,13 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>53206</v>
+        <v>53207</v>
       </c>
       <c r="D446" t="n">
         <v>8887</v>
       </c>
       <c r="E446" t="n">
-        <v>117969956</v>
+        <v>117971456</v>
       </c>
       <c r="F446" t="inlineStr">
         <is>
@@ -24268,13 +24268,13 @@
         </is>
       </c>
       <c r="C468" t="n">
-        <v>37474</v>
+        <v>37475</v>
       </c>
       <c r="D468" t="n">
         <v>6657</v>
       </c>
       <c r="E468" t="n">
-        <v>132569255</v>
+        <v>132617726</v>
       </c>
       <c r="F468" t="inlineStr">
         <is>
@@ -26971,13 +26971,13 @@
         </is>
       </c>
       <c r="C521" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D521" t="n">
         <v>6</v>
       </c>
       <c r="E521" t="n">
-        <v>342497</v>
+        <v>509896</v>
       </c>
       <c r="F521" t="inlineStr">
         <is>
@@ -27175,13 +27175,13 @@
         </is>
       </c>
       <c r="C525" t="n">
-        <v>7945</v>
+        <v>7947</v>
       </c>
       <c r="D525" t="n">
         <v>1450</v>
       </c>
       <c r="E525" t="n">
-        <v>48562156</v>
+        <v>48565156</v>
       </c>
       <c r="F525" t="inlineStr">
         <is>
@@ -28960,13 +28960,13 @@
         </is>
       </c>
       <c r="C560" t="n">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="D560" t="n">
         <v>130</v>
       </c>
       <c r="E560" t="n">
-        <v>26398241</v>
+        <v>26465256</v>
       </c>
       <c r="F560" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -5857,13 +5857,13 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D107" t="n">
         <v>21</v>
       </c>
       <c r="E107" t="n">
-        <v>16123861</v>
+        <v>16279568</v>
       </c>
       <c r="F107" t="inlineStr">
         <is>
@@ -9988,13 +9988,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>8980</v>
+        <v>8982</v>
       </c>
       <c r="D188" t="n">
         <v>1669</v>
       </c>
       <c r="E188" t="n">
-        <v>30782062</v>
+        <v>30789860</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -11365,13 +11365,13 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>3212</v>
+        <v>3213</v>
       </c>
       <c r="D215" t="n">
         <v>694</v>
       </c>
       <c r="E215" t="n">
-        <v>17110111</v>
+        <v>17122364</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -21310,13 +21310,13 @@
         </is>
       </c>
       <c r="C410" t="n">
-        <v>11175</v>
+        <v>11177</v>
       </c>
       <c r="D410" t="n">
         <v>2278</v>
       </c>
       <c r="E410" t="n">
-        <v>61174893</v>
+        <v>61230962</v>
       </c>
       <c r="F410" t="inlineStr">
         <is>
@@ -22534,13 +22534,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>163723</v>
+        <v>163735</v>
       </c>
       <c r="D434" t="n">
         <v>25458</v>
       </c>
       <c r="E434" t="n">
-        <v>712571897</v>
+        <v>712654899</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -22585,13 +22585,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>94673</v>
+        <v>94680</v>
       </c>
       <c r="D435" t="n">
         <v>12852</v>
       </c>
       <c r="E435" t="n">
-        <v>653862797</v>
+        <v>653902658</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
@@ -22636,13 +22636,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>50659</v>
+        <v>50663</v>
       </c>
       <c r="D436" t="n">
         <v>6175</v>
       </c>
       <c r="E436" t="n">
-        <v>543403572</v>
+        <v>543451268</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
@@ -22687,13 +22687,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>30990</v>
+        <v>30991</v>
       </c>
       <c r="D437" t="n">
         <v>3832</v>
       </c>
       <c r="E437" t="n">
-        <v>597230646</v>
+        <v>597270843</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
@@ -22738,13 +22738,13 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>10282</v>
+        <v>10284</v>
       </c>
       <c r="D438" t="n">
         <v>1383</v>
       </c>
       <c r="E438" t="n">
-        <v>484868542</v>
+        <v>484972017</v>
       </c>
       <c r="F438" t="inlineStr">
         <is>
@@ -23146,13 +23146,13 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>53207</v>
+        <v>53209</v>
       </c>
       <c r="D446" t="n">
         <v>8887</v>
       </c>
       <c r="E446" t="n">
-        <v>117971456</v>
+        <v>117976633</v>
       </c>
       <c r="F446" t="inlineStr">
         <is>
@@ -23656,13 +23656,13 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>15513</v>
+        <v>15515</v>
       </c>
       <c r="D456" t="n">
         <v>2399</v>
       </c>
       <c r="E456" t="n">
-        <v>41624395</v>
+        <v>41637062</v>
       </c>
       <c r="F456" t="inlineStr">
         <is>
@@ -23707,13 +23707,13 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>48931</v>
+        <v>48934</v>
       </c>
       <c r="D457" t="n">
         <v>8597</v>
       </c>
       <c r="E457" t="n">
-        <v>164902109</v>
+        <v>164933242</v>
       </c>
       <c r="F457" t="inlineStr">
         <is>
@@ -26512,13 +26512,13 @@
         </is>
       </c>
       <c r="C512" t="n">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D512" t="n">
         <v>56</v>
       </c>
       <c r="E512" t="n">
-        <v>10745878</v>
+        <v>10772714</v>
       </c>
       <c r="F512" t="inlineStr">
         <is>
@@ -38650,13 +38650,13 @@
         </is>
       </c>
       <c r="C750" t="n">
-        <v>3565</v>
+        <v>3566</v>
       </c>
       <c r="D750" t="n">
         <v>744</v>
       </c>
       <c r="E750" t="n">
-        <v>18460518</v>
+        <v>18474016</v>
       </c>
       <c r="F750" t="inlineStr">
         <is>
@@ -39364,13 +39364,13 @@
         </is>
       </c>
       <c r="C764" t="n">
-        <v>31972</v>
+        <v>31978</v>
       </c>
       <c r="D764" t="n">
         <v>6526</v>
       </c>
       <c r="E764" t="n">
-        <v>137963931</v>
+        <v>137972931</v>
       </c>
       <c r="F764" t="inlineStr">
         <is>
@@ -42373,13 +42373,13 @@
         </is>
       </c>
       <c r="C823" t="n">
-        <v>76810</v>
+        <v>76811</v>
       </c>
       <c r="D823" t="n">
         <v>14068</v>
       </c>
       <c r="E823" t="n">
-        <v>292032043</v>
+        <v>292042043</v>
       </c>
       <c r="F823" t="inlineStr">
         <is>
@@ -43903,13 +43903,13 @@
         </is>
       </c>
       <c r="C853" t="n">
-        <v>26727</v>
+        <v>26729</v>
       </c>
       <c r="D853" t="n">
         <v>4905</v>
       </c>
       <c r="E853" t="n">
-        <v>107421822</v>
+        <v>107426508</v>
       </c>
       <c r="F853" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -757,13 +757,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D7" t="n">
         <v>53</v>
       </c>
       <c r="E7" t="n">
-        <v>11968703</v>
+        <v>12167203</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -961,13 +961,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9406</v>
+        <v>9407</v>
       </c>
       <c r="D11" t="n">
         <v>1870</v>
       </c>
       <c r="E11" t="n">
-        <v>34872579</v>
+        <v>34874149</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -4174,13 +4174,13 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="D74" t="n">
         <v>225</v>
       </c>
       <c r="E74" t="n">
-        <v>15751704</v>
+        <v>15821309</v>
       </c>
       <c r="F74" t="inlineStr">
         <is>
@@ -14068,13 +14068,13 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>5808</v>
+        <v>5810</v>
       </c>
       <c r="D268" t="n">
         <v>1187</v>
       </c>
       <c r="E268" t="n">
-        <v>20493471</v>
+        <v>20496471</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -20596,13 +20596,13 @@
         </is>
       </c>
       <c r="C396" t="n">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="D396" t="n">
         <v>327</v>
       </c>
       <c r="E396" t="n">
-        <v>28407042</v>
+        <v>28415340</v>
       </c>
       <c r="F396" t="inlineStr">
         <is>
@@ -22024,13 +22024,13 @@
         </is>
       </c>
       <c r="C424" t="n">
-        <v>1608</v>
+        <v>1609</v>
       </c>
       <c r="D424" t="n">
         <v>280</v>
       </c>
       <c r="E424" t="n">
-        <v>79040243</v>
+        <v>79222710</v>
       </c>
       <c r="F424" t="inlineStr">
         <is>
@@ -22534,13 +22534,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>163735</v>
+        <v>163738</v>
       </c>
       <c r="D434" t="n">
         <v>25458</v>
       </c>
       <c r="E434" t="n">
-        <v>712654899</v>
+        <v>712772397</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -22585,13 +22585,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>94680</v>
+        <v>94685</v>
       </c>
       <c r="D435" t="n">
         <v>12852</v>
       </c>
       <c r="E435" t="n">
-        <v>653902658</v>
+        <v>654019725</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
@@ -22636,13 +22636,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>50663</v>
+        <v>50665</v>
       </c>
       <c r="D436" t="n">
         <v>6175</v>
       </c>
       <c r="E436" t="n">
-        <v>543451268</v>
+        <v>543475668</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
@@ -22687,13 +22687,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>30991</v>
+        <v>30994</v>
       </c>
       <c r="D437" t="n">
         <v>3832</v>
       </c>
       <c r="E437" t="n">
-        <v>597270843</v>
+        <v>597451648</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
@@ -22738,13 +22738,13 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>10284</v>
+        <v>10285</v>
       </c>
       <c r="D438" t="n">
         <v>1383</v>
       </c>
       <c r="E438" t="n">
-        <v>484972017</v>
+        <v>485172017</v>
       </c>
       <c r="F438" t="inlineStr">
         <is>
@@ -23707,13 +23707,13 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>48934</v>
+        <v>48937</v>
       </c>
       <c r="D457" t="n">
         <v>8597</v>
       </c>
       <c r="E457" t="n">
-        <v>164933242</v>
+        <v>164969719</v>
       </c>
       <c r="F457" t="inlineStr">
         <is>
@@ -39415,13 +39415,13 @@
         </is>
       </c>
       <c r="C765" t="n">
-        <v>14889</v>
+        <v>14890</v>
       </c>
       <c r="D765" t="n">
         <v>2736</v>
       </c>
       <c r="E765" t="n">
-        <v>89251755</v>
+        <v>89269349</v>
       </c>
       <c r="F765" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -3205,13 +3205,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D55" t="n">
         <v>35</v>
       </c>
       <c r="E55" t="n">
-        <v>20761685</v>
+        <v>20835111</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -3409,13 +3409,13 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>15111</v>
+        <v>15113</v>
       </c>
       <c r="D59" t="n">
         <v>2641</v>
       </c>
       <c r="E59" t="n">
-        <v>37467600</v>
+        <v>37474649</v>
       </c>
       <c r="F59" t="inlineStr">
         <is>
@@ -9580,13 +9580,13 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>22576</v>
+        <v>22577</v>
       </c>
       <c r="D180" t="n">
         <v>4282</v>
       </c>
       <c r="E180" t="n">
-        <v>99302627</v>
+        <v>99311127</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -22483,13 +22483,13 @@
         </is>
       </c>
       <c r="C433" t="n">
-        <v>61109</v>
+        <v>61111</v>
       </c>
       <c r="D433" t="n">
         <v>9650</v>
       </c>
       <c r="E433" t="n">
-        <v>221193587</v>
+        <v>221214574</v>
       </c>
       <c r="F433" t="inlineStr">
         <is>
@@ -22534,13 +22534,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>163738</v>
+        <v>163742</v>
       </c>
       <c r="D434" t="n">
         <v>25458</v>
       </c>
       <c r="E434" t="n">
-        <v>712772397</v>
+        <v>712795609</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -22585,13 +22585,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>94685</v>
+        <v>94687</v>
       </c>
       <c r="D435" t="n">
         <v>12852</v>
       </c>
       <c r="E435" t="n">
-        <v>654019725</v>
+        <v>654039725</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
@@ -22636,13 +22636,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>50665</v>
+        <v>50668</v>
       </c>
       <c r="D436" t="n">
         <v>6175</v>
       </c>
       <c r="E436" t="n">
-        <v>543475668</v>
+        <v>543525439</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
@@ -22687,13 +22687,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>30994</v>
+        <v>30996</v>
       </c>
       <c r="D437" t="n">
         <v>3832</v>
       </c>
       <c r="E437" t="n">
-        <v>597451648</v>
+        <v>597521608</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
@@ -23707,13 +23707,13 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>48937</v>
+        <v>48943</v>
       </c>
       <c r="D457" t="n">
         <v>8597</v>
       </c>
       <c r="E457" t="n">
-        <v>164969719</v>
+        <v>165020812</v>
       </c>
       <c r="F457" t="inlineStr">
         <is>
@@ -23911,13 +23911,13 @@
         </is>
       </c>
       <c r="C461" t="n">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="D461" t="n">
         <v>205</v>
       </c>
       <c r="E461" t="n">
-        <v>50143057</v>
+        <v>50187475</v>
       </c>
       <c r="F461" t="inlineStr">
         <is>
@@ -31918,13 +31918,13 @@
         </is>
       </c>
       <c r="C618" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D618" t="n">
         <v>12</v>
       </c>
       <c r="E618" t="n">
-        <v>4781716</v>
+        <v>4799168</v>
       </c>
       <c r="F618" t="inlineStr">
         <is>
@@ -32887,13 +32887,13 @@
         </is>
       </c>
       <c r="C637" t="n">
-        <v>8502</v>
+        <v>8503</v>
       </c>
       <c r="D637" t="n">
         <v>1825</v>
       </c>
       <c r="E637" t="n">
-        <v>31204294</v>
+        <v>31205794</v>
       </c>
       <c r="F637" t="inlineStr">
         <is>
@@ -42424,13 +42424,13 @@
         </is>
       </c>
       <c r="C824" t="n">
-        <v>28688</v>
+        <v>28689</v>
       </c>
       <c r="D824" t="n">
         <v>5058</v>
       </c>
       <c r="E824" t="n">
-        <v>166444535</v>
+        <v>166446035</v>
       </c>
       <c r="F824" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -3103,13 +3103,13 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4080</v>
+        <v>4081</v>
       </c>
       <c r="D53" t="n">
         <v>594</v>
       </c>
       <c r="E53" t="n">
-        <v>75345725</v>
+        <v>75378549</v>
       </c>
       <c r="F53" t="inlineStr">
         <is>
@@ -3205,13 +3205,13 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D55" t="n">
         <v>35</v>
       </c>
       <c r="E55" t="n">
-        <v>20835111</v>
+        <v>20896541</v>
       </c>
       <c r="F55" t="inlineStr">
         <is>
@@ -9529,13 +9529,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>9343</v>
+        <v>9344</v>
       </c>
       <c r="D179" t="n">
         <v>1756</v>
       </c>
       <c r="E179" t="n">
-        <v>34393264</v>
+        <v>34396842</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -12640,13 +12640,13 @@
         </is>
       </c>
       <c r="C240" t="n">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="D240" t="n">
         <v>352</v>
       </c>
       <c r="E240" t="n">
-        <v>15131967</v>
+        <v>15141967</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -17485,13 +17485,13 @@
         </is>
       </c>
       <c r="C335" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D335" t="n">
         <v>14</v>
       </c>
       <c r="E335" t="n">
-        <v>6177168</v>
+        <v>6185133</v>
       </c>
       <c r="F335" t="inlineStr">
         <is>
@@ -18454,13 +18454,13 @@
         </is>
       </c>
       <c r="C354" t="n">
-        <v>15735</v>
+        <v>15736</v>
       </c>
       <c r="D354" t="n">
         <v>2768</v>
       </c>
       <c r="E354" t="n">
-        <v>24685528</v>
+        <v>24686069</v>
       </c>
       <c r="F354" t="inlineStr">
         <is>
@@ -22534,13 +22534,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>163742</v>
+        <v>163747</v>
       </c>
       <c r="D434" t="n">
         <v>25458</v>
       </c>
       <c r="E434" t="n">
-        <v>712795609</v>
+        <v>712846118</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -22585,13 +22585,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>94687</v>
+        <v>94692</v>
       </c>
       <c r="D435" t="n">
         <v>12852</v>
       </c>
       <c r="E435" t="n">
-        <v>654039725</v>
+        <v>654062914</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
@@ -22636,13 +22636,13 @@
         </is>
       </c>
       <c r="C436" t="n">
-        <v>50668</v>
+        <v>50669</v>
       </c>
       <c r="D436" t="n">
         <v>6175</v>
       </c>
       <c r="E436" t="n">
-        <v>543525439</v>
+        <v>543533939</v>
       </c>
       <c r="F436" t="inlineStr">
         <is>
@@ -24166,13 +24166,13 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>15758</v>
+        <v>15760</v>
       </c>
       <c r="D466" t="n">
         <v>2347</v>
       </c>
       <c r="E466" t="n">
-        <v>28844403</v>
+        <v>28848311</v>
       </c>
       <c r="F466" t="inlineStr">
         <is>
@@ -24472,13 +24472,13 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="D472" t="n">
         <v>187</v>
       </c>
       <c r="E472" t="n">
-        <v>55574268</v>
+        <v>55578671</v>
       </c>
       <c r="F472" t="inlineStr">
         <is>
@@ -26257,13 +26257,13 @@
         </is>
       </c>
       <c r="C507" t="n">
-        <v>3803</v>
+        <v>3805</v>
       </c>
       <c r="D507" t="n">
         <v>699</v>
       </c>
       <c r="E507" t="n">
-        <v>9118147</v>
+        <v>9123175</v>
       </c>
       <c r="F507" t="inlineStr">
         <is>
@@ -26563,13 +26563,13 @@
         </is>
       </c>
       <c r="C513" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D513" t="n">
         <v>7</v>
       </c>
       <c r="E513" t="n">
-        <v>2534864</v>
+        <v>2597532</v>
       </c>
       <c r="F513" t="inlineStr">
         <is>
@@ -31561,13 +31561,13 @@
         </is>
       </c>
       <c r="C611" t="n">
-        <v>22934</v>
+        <v>22935</v>
       </c>
       <c r="D611" t="n">
         <v>4582</v>
       </c>
       <c r="E611" t="n">
-        <v>79322915</v>
+        <v>79334121</v>
       </c>
       <c r="F611" t="inlineStr">
         <is>
@@ -31714,13 +31714,13 @@
         </is>
       </c>
       <c r="C614" t="n">
-        <v>8885</v>
+        <v>8887</v>
       </c>
       <c r="D614" t="n">
         <v>1566</v>
       </c>
       <c r="E614" t="n">
-        <v>74831749</v>
+        <v>74848146</v>
       </c>
       <c r="F614" t="inlineStr">
         <is>
@@ -41914,13 +41914,13 @@
         </is>
       </c>
       <c r="C814" t="n">
-        <v>8919</v>
+        <v>8921</v>
       </c>
       <c r="D814" t="n">
         <v>1273</v>
       </c>
       <c r="E814" t="n">
-        <v>85079716</v>
+        <v>85219507</v>
       </c>
       <c r="F814" t="inlineStr">
         <is>
@@ -42067,13 +42067,13 @@
         </is>
       </c>
       <c r="C817" t="n">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D817" t="n">
         <v>44</v>
       </c>
       <c r="E817" t="n">
-        <v>20729536</v>
+        <v>20771580</v>
       </c>
       <c r="F817" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -14833,13 +14833,13 @@
         </is>
       </c>
       <c r="C283" t="n">
-        <v>15286</v>
+        <v>15287</v>
       </c>
       <c r="D283" t="n">
         <v>2816</v>
       </c>
       <c r="E283" t="n">
-        <v>86847483</v>
+        <v>86848983</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -19984,13 +19984,13 @@
         </is>
       </c>
       <c r="C384" t="n">
-        <v>15985</v>
+        <v>15988</v>
       </c>
       <c r="D384" t="n">
         <v>3288</v>
       </c>
       <c r="E384" t="n">
-        <v>58160279</v>
+        <v>58178585</v>
       </c>
       <c r="F384" t="inlineStr">
         <is>
@@ -22534,13 +22534,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>163747</v>
+        <v>163749</v>
       </c>
       <c r="D434" t="n">
         <v>25458</v>
       </c>
       <c r="E434" t="n">
-        <v>712846118</v>
+        <v>712879673</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -22585,13 +22585,13 @@
         </is>
       </c>
       <c r="C435" t="n">
-        <v>94692</v>
+        <v>94693</v>
       </c>
       <c r="D435" t="n">
         <v>12852</v>
       </c>
       <c r="E435" t="n">
-        <v>654062914</v>
+        <v>654072914</v>
       </c>
       <c r="F435" t="inlineStr">
         <is>
@@ -22738,13 +22738,13 @@
         </is>
       </c>
       <c r="C438" t="n">
-        <v>10285</v>
+        <v>10286</v>
       </c>
       <c r="D438" t="n">
         <v>1383</v>
       </c>
       <c r="E438" t="n">
-        <v>485172017</v>
+        <v>485241589</v>
       </c>
       <c r="F438" t="inlineStr">
         <is>
@@ -23656,13 +23656,13 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>15515</v>
+        <v>15530</v>
       </c>
       <c r="D456" t="n">
         <v>2399</v>
       </c>
       <c r="E456" t="n">
-        <v>41637062</v>
+        <v>41770174</v>
       </c>
       <c r="F456" t="inlineStr">
         <is>
@@ -23758,13 +23758,13 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>24151</v>
+        <v>24152</v>
       </c>
       <c r="D458" t="n">
         <v>4652</v>
       </c>
       <c r="E458" t="n">
-        <v>133167172</v>
+        <v>133168672</v>
       </c>
       <c r="F458" t="inlineStr">
         <is>
@@ -24166,13 +24166,13 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>15760</v>
+        <v>15775</v>
       </c>
       <c r="D466" t="n">
         <v>2347</v>
       </c>
       <c r="E466" t="n">
-        <v>28848311</v>
+        <v>28993927</v>
       </c>
       <c r="F466" t="inlineStr">
         <is>
@@ -26002,13 +26002,13 @@
         </is>
       </c>
       <c r="C502" t="n">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="D502" t="n">
         <v>233</v>
       </c>
       <c r="E502" t="n">
-        <v>20781207</v>
+        <v>20804705</v>
       </c>
       <c r="F502" t="inlineStr">
         <is>

--- a/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-06-24/fonds-solidarite-volet-1-departemental-classe-effectif-latest.xlsx
@@ -961,13 +961,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9407</v>
+        <v>9408</v>
       </c>
       <c r="D11" t="n">
         <v>1870</v>
       </c>
       <c r="E11" t="n">
-        <v>34874149</v>
+        <v>34875719</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
@@ -14068,13 +14068,13 @@
         </is>
       </c>
       <c r="C268" t="n">
-        <v>5810</v>
+        <v>5811</v>
       </c>
       <c r="D268" t="n">
         <v>1187</v>
       </c>
       <c r="E268" t="n">
-        <v>20496471</v>
+        <v>20497971</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -21412,13 +21412,13 @@
         </is>
       </c>
       <c r="C412" t="n">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="D412" t="n">
         <v>297</v>
       </c>
       <c r="E412" t="n">
-        <v>28599635</v>
+        <v>28719823</v>
       </c>
       <c r="F412" t="inlineStr">
         <is>
@@ -22534,13 +22534,13 @@
         </is>
       </c>
       <c r="C434" t="n">
-        <v>163749</v>
+        <v>163754</v>
       </c>
       <c r="D434" t="n">
         <v>25458</v>
       </c>
       <c r="E434" t="n">
-        <v>712879673</v>
+        <v>712928173</v>
       </c>
       <c r="F434" t="inlineStr">
         <is>
@@ -22687,13 +22687,13 @@
         </is>
       </c>
       <c r="C437" t="n">
-        <v>30996</v>
+        <v>30997</v>
       </c>
       <c r="D437" t="n">
         <v>3832</v>
       </c>
       <c r="E437" t="n">
-        <v>597521608</v>
+        <v>597721608</v>
       </c>
       <c r="F437" t="inlineStr">
         <is>
@@ -23146,13 +23146,13 @@
         </is>
       </c>
       <c r="C446" t="n">
-        <v>53209</v>
+        <v>53210</v>
       </c>
       <c r="D446" t="n">
         <v>8887</v>
       </c>
       <c r="E446" t="n">
-        <v>117976633</v>
+        <v>117983475</v>
       </c>
       <c r="F446" t="inlineStr">
         <is>
@@ -23656,13 +23656,13 @@
         </is>
       </c>
       <c r="C456" t="n">
-        <v>15530</v>
+        <v>15557</v>
       </c>
       <c r="D456" t="n">
         <v>2399</v>
       </c>
       <c r="E456" t="n">
-        <v>41770174</v>
+        <v>42022039</v>
       </c>
       <c r="F456" t="inlineStr">
         <is>
@@ -23707,13 +23707,13 @@
         </is>
       </c>
       <c r="C457" t="n">
-        <v>48943</v>
+        <v>48946</v>
       </c>
       <c r="D457" t="n">
         <v>8597</v>
       </c>
       <c r="E457" t="n">
-        <v>165020812</v>
+        <v>165060045</v>
       </c>
       <c r="F457" t="inlineStr">
         <is>
@@ -23758,13 +23758,13 @@
         </is>
       </c>
       <c r="C458" t="n">
-        <v>24152</v>
+        <v>24154</v>
       </c>
       <c r="D458" t="n">
         <v>4652</v>
       </c>
       <c r="E458" t="n">
-        <v>133168672</v>
+        <v>133188084</v>
       </c>
       <c r="F458" t="inlineStr">
         <is>
@@ -24166,13 +24166,13 @@
         </is>
       </c>
       <c r="C466" t="n">
-        <v>15775</v>
+        <v>15799</v>
       </c>
       <c r="D466" t="n">
         <v>2347</v>
       </c>
       <c r="E466" t="n">
-        <v>28993927</v>
+        <v>29208161</v>
       </c>
       <c r="F466" t="inlineStr">
         <is>
@@ -24472,13 +24472,13 @@
         </is>
       </c>
       <c r="C472" t="n">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="D472" t="n">
         <v>187</v>
       </c>
       <c r="E472" t="n">
-        <v>55578671</v>
+        <v>55642925</v>
       </c>
       <c r="F472" t="inlineStr">
         <is>
@@ -25441,13 +25441,13 @@
         </is>
       </c>
       <c r="C491" t="n">
-        <v>5390</v>
+        <v>5391</v>
       </c>
       <c r="D491" t="n">
         <v>918</v>
       </c>
       <c r="E491" t="n">
-        <v>44800754</v>
+        <v>44811786</v>
       </c>
       <c r="F491" t="inlineStr">
         <is>
@@ -26359,13 +26359,13 @@
         </is>
       </c>
       <c r="C509" t="n">
-        <v>4566</v>
+        <v>4567</v>
       </c>
       <c r="D509" t="n">
         <v>967</v>
       </c>
       <c r="E509" t="n">
-        <v>20667158</v>
+        <v>20680072</v>
       </c>
       <c r="F509" t="inlineStr">
         <is>
@@ -26461,13 +26461,13 @@
         </is>
       </c>
       <c r="C511" t="n">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="D511" t="n">
         <v>161</v>
       </c>
       <c r="E511" t="n">
-        <v>11859662</v>
+        <v>11896140</v>
       </c>
       <c r="F511" t="inlineStr">
         <is>
@@ -31765,13 +31765,13 @@
         </is>
       </c>
       <c r="C615" t="n">
-        <v>4373</v>
+        <v>4374</v>
       </c>
       <c r="D615" t="n">
         <v>708</v>
       </c>
       <c r="E615" t="n">
-        <v>70108890</v>
+        <v>70113375</v>
       </c>
       <c r="F615" t="inlineStr">
         <is>
@@ -34315,13 +34315,13 @@
         </is>
       </c>
       <c r="C665" t="n">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="D665" t="n">
         <v>451</v>
       </c>
       <c r="E665" t="n">
-        <v>3262573</v>
+        <v>3263975</v>
       </c>
       <c r="F665" t="inlineStr">
         <is>
@@ -42322,13 +42322,13 @@
         </is>
       </c>
       <c r="C822" t="n">
-        <v>27712</v>
+        <v>27715</v>
       </c>
       <c r="D822" t="n">
         <v>5062</v>
       </c>
       <c r="E822" t="n">
-        <v>86646656</v>
+        <v>86668156</v>
       </c>
       <c r="F822" t="inlineStr">
         <is>
@@ -42373,13 +42373,13 @@
         </is>
       </c>
       <c r="C823" t="n">
-        <v>76811</v>
+        <v>76815</v>
       </c>
       <c r="D823" t="n">
         <v>14068</v>
       </c>
       <c r="E823" t="n">
-        <v>292042043</v>
+        <v>292105821</v>
       </c>
       <c r="F823" t="inlineStr">
         <is>
